--- a/PythonResources/Data/Consumption/Sympheny/base_1676_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1676_coo.xlsx
@@ -24631,7 +24631,7 @@
         <v>3036</v>
       </c>
       <c r="B3036">
-        <v>7.582890747219783</v>
+        <v>7.582890747219782</v>
       </c>
     </row>
     <row r="3037" spans="1:2">
@@ -25223,7 +25223,7 @@
         <v>3110</v>
       </c>
       <c r="B3110">
-        <v>18.37552481696249</v>
+        <v>18.37552481696248</v>
       </c>
     </row>
     <row r="3111" spans="1:2">
@@ -25583,7 +25583,7 @@
         <v>3155</v>
       </c>
       <c r="B3155">
-        <v>24.42539026804864</v>
+        <v>24.42539026804863</v>
       </c>
     </row>
     <row r="3156" spans="1:2">
@@ -27895,7 +27895,7 @@
         <v>3444</v>
       </c>
       <c r="B3444">
-        <v>17.25605206348388</v>
+        <v>17.25605206348387</v>
       </c>
     </row>
     <row r="3445" spans="1:2">
@@ -28279,7 +28279,7 @@
         <v>3492</v>
       </c>
       <c r="B3492">
-        <v>40.32305806733718</v>
+        <v>40.32305806733717</v>
       </c>
     </row>
     <row r="3493" spans="1:2">
@@ -28295,7 +28295,7 @@
         <v>3494</v>
       </c>
       <c r="B3494">
-        <v>50.76312767757028</v>
+        <v>50.76312767757027</v>
       </c>
     </row>
     <row r="3495" spans="1:2">
@@ -29031,7 +29031,7 @@
         <v>3586</v>
       </c>
       <c r="B3586">
-        <v>47.02588579256081</v>
+        <v>47.0258857925608</v>
       </c>
     </row>
     <row r="3587" spans="1:2">
@@ -29207,7 +29207,7 @@
         <v>3608</v>
       </c>
       <c r="B3608">
-        <v>9.667358509698602</v>
+        <v>9.6673585096986</v>
       </c>
     </row>
     <row r="3609" spans="1:2">
@@ -29447,7 +29447,7 @@
         <v>3638</v>
       </c>
       <c r="B3638">
-        <v>44.10631210541649</v>
+        <v>44.10631210541648</v>
       </c>
     </row>
     <row r="3639" spans="1:2">
@@ -29463,7 +29463,7 @@
         <v>3640</v>
       </c>
       <c r="B3640">
-        <v>44.36128390905186</v>
+        <v>44.36128390905185</v>
       </c>
     </row>
     <row r="3641" spans="1:2">
@@ -29983,7 +29983,7 @@
         <v>3705</v>
       </c>
       <c r="B3705">
-        <v>20.96908628069993</v>
+        <v>20.96908628069992</v>
       </c>
     </row>
     <row r="3706" spans="1:2">
@@ -29991,7 +29991,7 @@
         <v>3706</v>
       </c>
       <c r="B3706">
-        <v>30.74461731076843</v>
+        <v>30.74461731076842</v>
       </c>
     </row>
     <row r="3707" spans="1:2">
@@ -30039,7 +30039,7 @@
         <v>3712</v>
       </c>
       <c r="B3712">
-        <v>14.32668980364827</v>
+        <v>14.32668980364826</v>
       </c>
     </row>
     <row r="3713" spans="1:2">
@@ -30375,7 +30375,7 @@
         <v>3754</v>
       </c>
       <c r="B3754">
-        <v>51.06381856323682</v>
+        <v>51.06381856323681</v>
       </c>
     </row>
     <row r="3755" spans="1:2">
@@ -30415,7 +30415,7 @@
         <v>3759</v>
       </c>
       <c r="B3759">
-        <v>67.6809464553351</v>
+        <v>67.68094645533509</v>
       </c>
     </row>
     <row r="3760" spans="1:2">
@@ -30999,7 +30999,7 @@
         <v>3832</v>
       </c>
       <c r="B3832">
-        <v>9.294923833767765</v>
+        <v>9.29492383376776</v>
       </c>
     </row>
     <row r="3833" spans="1:2">
@@ -31327,7 +31327,7 @@
         <v>3873</v>
       </c>
       <c r="B3873">
-        <v>6.983384630534134</v>
+        <v>6.983384630534133</v>
       </c>
     </row>
     <row r="3874" spans="1:2">
@@ -31335,7 +31335,7 @@
         <v>3874</v>
       </c>
       <c r="B3874">
-        <v>13.89370665113</v>
+        <v>13.89370665112999</v>
       </c>
     </row>
     <row r="3875" spans="1:2">
@@ -31351,7 +31351,7 @@
         <v>3876</v>
       </c>
       <c r="B3876">
-        <v>12.90192494919614</v>
+        <v>12.90192494919613</v>
       </c>
     </row>
     <row r="3877" spans="1:2">
@@ -31703,7 +31703,7 @@
         <v>3920</v>
       </c>
       <c r="B3920">
-        <v>4.975203259418864</v>
+        <v>4.975203259418863</v>
       </c>
     </row>
     <row r="3921" spans="1:2">
@@ -31719,7 +31719,7 @@
         <v>3922</v>
       </c>
       <c r="B3922">
-        <v>73.21207616799067</v>
+        <v>73.21207616799066</v>
       </c>
     </row>
     <row r="3923" spans="1:2">
@@ -31751,7 +31751,7 @@
         <v>3926</v>
       </c>
       <c r="B3926">
-        <v>81.85093117461115</v>
+        <v>81.85093117461113</v>
       </c>
     </row>
     <row r="3927" spans="1:2">
@@ -31759,7 +31759,7 @@
         <v>3927</v>
       </c>
       <c r="B3927">
-        <v>79.59428417691879</v>
+        <v>79.59428417691878</v>
       </c>
     </row>
     <row r="3928" spans="1:2">
@@ -31767,7 +31767,7 @@
         <v>3928</v>
       </c>
       <c r="B3928">
-        <v>49.36488575211701</v>
+        <v>49.364885752117</v>
       </c>
     </row>
     <row r="3929" spans="1:2">
@@ -31919,7 +31919,7 @@
         <v>3947</v>
       </c>
       <c r="B3947">
-        <v>82.64368833419009</v>
+        <v>82.64368833419007</v>
       </c>
     </row>
     <row r="3948" spans="1:2">
@@ -31959,7 +31959,7 @@
         <v>3952</v>
       </c>
       <c r="B3952">
-        <v>56.48768427574234</v>
+        <v>56.48768427574233</v>
       </c>
     </row>
     <row r="3953" spans="1:2">
@@ -32159,7 +32159,7 @@
         <v>3977</v>
       </c>
       <c r="B3977">
-        <v>68.12465600786838</v>
+        <v>68.12465600786837</v>
       </c>
     </row>
     <row r="3978" spans="1:2">
@@ -32311,7 +32311,7 @@
         <v>3996</v>
       </c>
       <c r="B3996">
-        <v>96.7494904959993</v>
+        <v>96.74949049599928</v>
       </c>
     </row>
     <row r="3997" spans="1:2">
@@ -32663,7 +32663,7 @@
         <v>4040</v>
       </c>
       <c r="B4040">
-        <v>19.92118147486242</v>
+        <v>19.92118147486241</v>
       </c>
     </row>
     <row r="4041" spans="1:2">
@@ -32671,7 +32671,7 @@
         <v>4041</v>
       </c>
       <c r="B4041">
-        <v>59.16078521937247</v>
+        <v>59.16078521937246</v>
       </c>
     </row>
     <row r="4042" spans="1:2">
@@ -32679,7 +32679,7 @@
         <v>4042</v>
       </c>
       <c r="B4042">
-        <v>70.09848945325254</v>
+        <v>70.09848945325253</v>
       </c>
     </row>
     <row r="4043" spans="1:2">
@@ -32711,7 +32711,7 @@
         <v>4046</v>
       </c>
       <c r="B4046">
-        <v>79.66256972892688</v>
+        <v>79.66256972892687</v>
       </c>
     </row>
     <row r="4047" spans="1:2">
@@ -32743,7 +32743,7 @@
         <v>4050</v>
       </c>
       <c r="B4050">
-        <v>45.17660753860772</v>
+        <v>45.17660753860771</v>
       </c>
     </row>
     <row r="4051" spans="1:2">
@@ -32895,7 +32895,7 @@
         <v>4069</v>
       </c>
       <c r="B4069">
-        <v>60.25100948319268</v>
+        <v>60.25100948319267</v>
       </c>
     </row>
     <row r="4070" spans="1:2">
@@ -33047,7 +33047,7 @@
         <v>4088</v>
       </c>
       <c r="B4088">
-        <v>33.5258614676646</v>
+        <v>33.52586146766459</v>
       </c>
     </row>
     <row r="4089" spans="1:2">
@@ -33087,7 +33087,7 @@
         <v>4093</v>
       </c>
       <c r="B4093">
-        <v>81.88668584132783</v>
+        <v>81.88668584132782</v>
       </c>
     </row>
     <row r="4094" spans="1:2">
@@ -33239,7 +33239,7 @@
         <v>4112</v>
       </c>
       <c r="B4112">
-        <v>11.89340889095472</v>
+        <v>11.89340889095471</v>
       </c>
     </row>
     <row r="4113" spans="1:2">
@@ -33263,7 +33263,7 @@
         <v>4115</v>
       </c>
       <c r="B4115">
-        <v>71.27604888659383</v>
+        <v>71.27604888659381</v>
       </c>
     </row>
     <row r="4116" spans="1:2">
@@ -33639,7 +33639,7 @@
         <v>4162</v>
       </c>
       <c r="B4162">
-        <v>79.17577873371039</v>
+        <v>79.17577873371037</v>
       </c>
     </row>
     <row r="4163" spans="1:2">
@@ -33871,7 +33871,7 @@
         <v>4191</v>
       </c>
       <c r="B4191">
-        <v>66.85829604981271</v>
+        <v>66.85829604981269</v>
       </c>
     </row>
     <row r="4192" spans="1:2">
@@ -34055,7 +34055,7 @@
         <v>4214</v>
       </c>
       <c r="B4214">
-        <v>61.7512401301001</v>
+        <v>61.75124013010009</v>
       </c>
     </row>
     <row r="4215" spans="1:2">
@@ -34247,7 +34247,7 @@
         <v>4238</v>
       </c>
       <c r="B4238">
-        <v>46.87319578141825</v>
+        <v>46.87319578141824</v>
       </c>
     </row>
     <row r="4239" spans="1:2">
@@ -34271,7 +34271,7 @@
         <v>4241</v>
       </c>
       <c r="B4241">
-        <v>47.67327971696372</v>
+        <v>47.67327971696371</v>
       </c>
     </row>
     <row r="4242" spans="1:2">
@@ -34399,7 +34399,7 @@
         <v>4257</v>
       </c>
       <c r="B4257">
-        <v>52.71468772401618</v>
+        <v>52.71468772401617</v>
       </c>
     </row>
     <row r="4258" spans="1:2">
@@ -34407,7 +34407,7 @@
         <v>4258</v>
       </c>
       <c r="B4258">
-        <v>62.79574531188914</v>
+        <v>62.79574531188913</v>
       </c>
     </row>
     <row r="4259" spans="1:2">
@@ -34431,7 +34431,7 @@
         <v>4261</v>
       </c>
       <c r="B4261">
-        <v>57.89911439793538</v>
+        <v>57.89911439793537</v>
       </c>
     </row>
     <row r="4262" spans="1:2">
@@ -34439,7 +34439,7 @@
         <v>4262</v>
       </c>
       <c r="B4262">
-        <v>63.00968717011192</v>
+        <v>63.00968717011191</v>
       </c>
     </row>
     <row r="4263" spans="1:2">
@@ -34447,7 +34447,7 @@
         <v>4263</v>
       </c>
       <c r="B4263">
-        <v>56.10346814405732</v>
+        <v>56.10346814405731</v>
       </c>
     </row>
     <row r="4264" spans="1:2">
@@ -34591,7 +34591,7 @@
         <v>4281</v>
       </c>
       <c r="B4281">
-        <v>47.16099154138369</v>
+        <v>47.16099154138368</v>
       </c>
     </row>
     <row r="4282" spans="1:2">
@@ -34599,7 +34599,7 @@
         <v>4282</v>
       </c>
       <c r="B4282">
-        <v>51.21709471645671</v>
+        <v>51.2170947164567</v>
       </c>
     </row>
     <row r="4283" spans="1:2">
@@ -34839,7 +34839,7 @@
         <v>4312</v>
       </c>
       <c r="B4312">
-        <v>47.62990520324184</v>
+        <v>47.62990520324183</v>
       </c>
     </row>
     <row r="4313" spans="1:2">
@@ -34991,7 +34991,7 @@
         <v>4331</v>
       </c>
       <c r="B4331">
-        <v>63.17820301734219</v>
+        <v>63.17820301734218</v>
       </c>
     </row>
     <row r="4332" spans="1:2">
@@ -35399,7 +35399,7 @@
         <v>4382</v>
       </c>
       <c r="B4382">
-        <v>95.36179912793784</v>
+        <v>95.3617991279378</v>
       </c>
     </row>
     <row r="4383" spans="1:2">
@@ -35415,7 +35415,7 @@
         <v>4384</v>
       </c>
       <c r="B4384">
-        <v>56.37602421001237</v>
+        <v>56.37602421001236</v>
       </c>
     </row>
     <row r="4385" spans="1:2">
@@ -35583,7 +35583,7 @@
         <v>4405</v>
       </c>
       <c r="B4405">
-        <v>58.12858902120721</v>
+        <v>58.1285890212072</v>
       </c>
     </row>
     <row r="4406" spans="1:2">
@@ -35607,7 +35607,7 @@
         <v>4408</v>
       </c>
       <c r="B4408">
-        <v>54.67914289616318</v>
+        <v>54.67914289616317</v>
       </c>
     </row>
     <row r="4409" spans="1:2">
@@ -35975,7 +35975,7 @@
         <v>4454</v>
       </c>
       <c r="B4454">
-        <v>68.81483830391585</v>
+        <v>68.81483830391583</v>
       </c>
     </row>
     <row r="4455" spans="1:2">
@@ -36151,7 +36151,7 @@
         <v>4476</v>
       </c>
       <c r="B4476">
-        <v>52.72787592075594</v>
+        <v>52.72787592075593</v>
       </c>
     </row>
     <row r="4477" spans="1:2">
@@ -36167,7 +36167,7 @@
         <v>4478</v>
       </c>
       <c r="B4478">
-        <v>56.84464480083186</v>
+        <v>56.84464480083185</v>
       </c>
     </row>
     <row r="4479" spans="1:2">
@@ -36367,7 +36367,7 @@
         <v>4503</v>
       </c>
       <c r="B4503">
-        <v>95.96523239654154</v>
+        <v>95.96523239654152</v>
       </c>
     </row>
     <row r="4504" spans="1:2">
@@ -36383,7 +36383,7 @@
         <v>4505</v>
       </c>
       <c r="B4505">
-        <v>57.96065931605426</v>
+        <v>57.96065931605425</v>
       </c>
     </row>
     <row r="4506" spans="1:2">
@@ -36743,7 +36743,7 @@
         <v>4550</v>
       </c>
       <c r="B4550">
-        <v>65.90317753481538</v>
+        <v>65.90317753481537</v>
       </c>
     </row>
     <row r="4551" spans="1:2">
@@ -37095,7 +37095,7 @@
         <v>4594</v>
       </c>
       <c r="B4594">
-        <v>60.12381665241365</v>
+        <v>60.12381665241364</v>
       </c>
     </row>
     <row r="4595" spans="1:2">
@@ -37111,7 +37111,7 @@
         <v>4596</v>
       </c>
       <c r="B4596">
-        <v>68.4300360301535</v>
+        <v>68.43003603015349</v>
       </c>
     </row>
     <row r="4597" spans="1:2">
@@ -37135,7 +37135,7 @@
         <v>4599</v>
       </c>
       <c r="B4599">
-        <v>63.17790994630353</v>
+        <v>63.17790994630352</v>
       </c>
     </row>
     <row r="4600" spans="1:2">
@@ -37671,7 +37671,7 @@
         <v>4666</v>
       </c>
       <c r="B4666">
-        <v>64.17845447229337</v>
+        <v>64.17845447229335</v>
       </c>
     </row>
     <row r="4667" spans="1:2">
@@ -37695,7 +37695,7 @@
         <v>4669</v>
       </c>
       <c r="B4669">
-        <v>64.95274815643664</v>
+        <v>64.95274815643663</v>
       </c>
     </row>
     <row r="4670" spans="1:2">
@@ -38047,7 +38047,7 @@
         <v>4713</v>
       </c>
       <c r="B4713">
-        <v>68.34064936336179</v>
+        <v>68.34064936336178</v>
       </c>
     </row>
     <row r="4714" spans="1:2">
@@ -38087,7 +38087,7 @@
         <v>4718</v>
       </c>
       <c r="B4718">
-        <v>73.07228128254921</v>
+        <v>73.0722812825492</v>
       </c>
     </row>
     <row r="4719" spans="1:2">
@@ -38103,7 +38103,7 @@
         <v>4720</v>
       </c>
       <c r="B4720">
-        <v>50.63593484679126</v>
+        <v>50.63593484679125</v>
       </c>
     </row>
     <row r="4721" spans="1:2">
@@ -38127,7 +38127,7 @@
         <v>4723</v>
       </c>
       <c r="B4723">
-        <v>29.45276017234922</v>
+        <v>29.45276017234921</v>
       </c>
     </row>
     <row r="4724" spans="1:2">
@@ -38479,7 +38479,7 @@
         <v>4767</v>
       </c>
       <c r="B4767">
-        <v>90.01413188548426</v>
+        <v>90.01413188548425</v>
       </c>
     </row>
     <row r="4768" spans="1:2">
@@ -38663,7 +38663,7 @@
         <v>4790</v>
       </c>
       <c r="B4790">
-        <v>100.2578438998143</v>
+        <v>100.2578438998142</v>
       </c>
     </row>
     <row r="4791" spans="1:2">
@@ -38831,7 +38831,7 @@
         <v>4811</v>
       </c>
       <c r="B4811">
-        <v>73.42396652894283</v>
+        <v>73.42396652894281</v>
       </c>
     </row>
     <row r="4812" spans="1:2">
@@ -38847,7 +38847,7 @@
         <v>4813</v>
       </c>
       <c r="B4813">
-        <v>84.79160597653909</v>
+        <v>84.79160597653907</v>
       </c>
     </row>
     <row r="4814" spans="1:2">
@@ -38871,7 +38871,7 @@
         <v>4816</v>
       </c>
       <c r="B4816">
-        <v>81.01773021169694</v>
+        <v>81.01773021169693</v>
       </c>
     </row>
     <row r="4817" spans="1:2">
@@ -38999,7 +38999,7 @@
         <v>4832</v>
       </c>
       <c r="B4832">
-        <v>47.97133296328231</v>
+        <v>47.9713329632823</v>
       </c>
     </row>
     <row r="4833" spans="1:2">
@@ -39047,7 +39047,7 @@
         <v>4838</v>
       </c>
       <c r="B4838">
-        <v>109.4318466230304</v>
+        <v>109.4318466230303</v>
       </c>
     </row>
     <row r="4839" spans="1:2">
@@ -39255,7 +39255,7 @@
         <v>4864</v>
       </c>
       <c r="B4864">
-        <v>70.12427970465474</v>
+        <v>70.12427970465473</v>
       </c>
     </row>
     <row r="4865" spans="1:2">
@@ -39591,7 +39591,7 @@
         <v>4906</v>
       </c>
       <c r="B4906">
-        <v>41.32682637475229</v>
+        <v>41.32682637475228</v>
       </c>
     </row>
     <row r="4907" spans="1:2">
@@ -39623,7 +39623,7 @@
         <v>4910</v>
       </c>
       <c r="B4910">
-        <v>63.537508110741</v>
+        <v>63.53750811074099</v>
       </c>
     </row>
     <row r="4911" spans="1:2">
@@ -39639,7 +39639,7 @@
         <v>4912</v>
       </c>
       <c r="B4912">
-        <v>68.17770186586608</v>
+        <v>68.17770186586607</v>
       </c>
     </row>
     <row r="4913" spans="1:2">
@@ -39655,7 +39655,7 @@
         <v>4914</v>
       </c>
       <c r="B4914">
-        <v>53.46875950649182</v>
+        <v>53.46875950649181</v>
       </c>
     </row>
     <row r="4915" spans="1:2">
@@ -39663,7 +39663,7 @@
         <v>4915</v>
       </c>
       <c r="B4915">
-        <v>41.39071586118046</v>
+        <v>41.39071586118045</v>
       </c>
     </row>
     <row r="4916" spans="1:2">
@@ -39799,7 +39799,7 @@
         <v>4932</v>
       </c>
       <c r="B4932">
-        <v>66.89610221380002</v>
+        <v>66.89610221380001</v>
       </c>
     </row>
     <row r="4933" spans="1:2">
@@ -39823,7 +39823,7 @@
         <v>4935</v>
       </c>
       <c r="B4935">
-        <v>77.32386284040935</v>
+        <v>77.32386284040933</v>
       </c>
     </row>
     <row r="4936" spans="1:2">
@@ -39959,7 +39959,7 @@
         <v>4952</v>
       </c>
       <c r="B4952">
-        <v>37.14118580059096</v>
+        <v>37.14118580059095</v>
       </c>
     </row>
     <row r="4953" spans="1:2">
@@ -39983,7 +39983,7 @@
         <v>4955</v>
       </c>
       <c r="B4955">
-        <v>101.6089013880431</v>
+        <v>101.608901388043</v>
       </c>
     </row>
     <row r="4956" spans="1:2">
@@ -40007,7 +40007,7 @@
         <v>4958</v>
       </c>
       <c r="B4958">
-        <v>100.8697762285392</v>
+        <v>100.8697762285391</v>
       </c>
     </row>
     <row r="4959" spans="1:2">
@@ -40375,7 +40375,7 @@
         <v>5004</v>
       </c>
       <c r="B5004">
-        <v>58.26340169899143</v>
+        <v>58.26340169899142</v>
       </c>
     </row>
     <row r="5005" spans="1:2">
@@ -40767,7 +40767,7 @@
         <v>5053</v>
       </c>
       <c r="B5053">
-        <v>46.13934590061024</v>
+        <v>46.13934590061023</v>
       </c>
     </row>
     <row r="5054" spans="1:2">
@@ -40975,7 +40975,7 @@
         <v>5079</v>
       </c>
       <c r="B5079">
-        <v>39.76241317037803</v>
+        <v>39.76241317037802</v>
       </c>
     </row>
     <row r="5080" spans="1:2">
@@ -41319,7 +41319,7 @@
         <v>5122</v>
       </c>
       <c r="B5122">
-        <v>85.46596243649884</v>
+        <v>85.46596243649883</v>
       </c>
     </row>
     <row r="5123" spans="1:2">
@@ -41527,7 +41527,7 @@
         <v>5148</v>
       </c>
       <c r="B5148">
-        <v>38.39963284060277</v>
+        <v>38.39963284060276</v>
       </c>
     </row>
     <row r="5149" spans="1:2">
@@ -41703,7 +41703,7 @@
         <v>5170</v>
       </c>
       <c r="B5170">
-        <v>89.34182692279514</v>
+        <v>89.34182692279512</v>
       </c>
     </row>
     <row r="5171" spans="1:2">
@@ -41719,7 +41719,7 @@
         <v>5172</v>
       </c>
       <c r="B5172">
-        <v>89.12260978587645</v>
+        <v>89.12260978587643</v>
       </c>
     </row>
     <row r="5173" spans="1:2">
@@ -41775,7 +41775,7 @@
         <v>5179</v>
       </c>
       <c r="B5179">
-        <v>43.71125234530099</v>
+        <v>43.71125234530098</v>
       </c>
     </row>
     <row r="5180" spans="1:2">
@@ -42495,7 +42495,7 @@
         <v>5269</v>
       </c>
       <c r="B5269">
-        <v>45.41575350615538</v>
+        <v>45.41575350615537</v>
       </c>
     </row>
     <row r="5270" spans="1:2">
@@ -42503,7 +42503,7 @@
         <v>5270</v>
       </c>
       <c r="B5270">
-        <v>41.22249308498885</v>
+        <v>41.22249308498884</v>
       </c>
     </row>
     <row r="5271" spans="1:2">
@@ -42655,7 +42655,7 @@
         <v>5289</v>
       </c>
       <c r="B5289">
-        <v>32.57806972863381</v>
+        <v>32.5780697286338</v>
       </c>
     </row>
     <row r="5290" spans="1:2">
@@ -42663,7 +42663,7 @@
         <v>5290</v>
       </c>
       <c r="B5290">
-        <v>39.99188779364986</v>
+        <v>39.99188779364985</v>
       </c>
     </row>
     <row r="5291" spans="1:2">
@@ -42679,7 +42679,7 @@
         <v>5292</v>
       </c>
       <c r="B5292">
-        <v>60.45733149441026</v>
+        <v>60.45733149441025</v>
       </c>
     </row>
     <row r="5293" spans="1:2">
@@ -43047,7 +43047,7 @@
         <v>5338</v>
       </c>
       <c r="B5338">
-        <v>61.23690045724944</v>
+        <v>61.23690045724943</v>
       </c>
     </row>
     <row r="5339" spans="1:2">
@@ -43255,7 +43255,7 @@
         <v>5364</v>
       </c>
       <c r="B5364">
-        <v>48.83208260383068</v>
+        <v>48.83208260383067</v>
       </c>
     </row>
     <row r="5365" spans="1:2">
@@ -43431,7 +43431,7 @@
         <v>5386</v>
       </c>
       <c r="B5386">
-        <v>95.27768773984202</v>
+        <v>95.27768773984199</v>
       </c>
     </row>
     <row r="5387" spans="1:2">
@@ -44023,7 +44023,7 @@
         <v>5460</v>
       </c>
       <c r="B5460">
-        <v>38.41223489526521</v>
+        <v>38.4122348952652</v>
       </c>
     </row>
     <row r="5461" spans="1:2">
@@ -45159,7 +45159,7 @@
         <v>5602</v>
       </c>
       <c r="B5602">
-        <v>45.03388194277965</v>
+        <v>45.03388194277964</v>
       </c>
     </row>
     <row r="5603" spans="1:2">
@@ -45207,7 +45207,7 @@
         <v>5608</v>
       </c>
       <c r="B5608">
-        <v>6.436308922665001</v>
+        <v>6.436308922665</v>
       </c>
     </row>
     <row r="5609" spans="1:2">
@@ -45951,7 +45951,7 @@
         <v>5701</v>
       </c>
       <c r="B5701">
-        <v>48.94960409033388</v>
+        <v>48.94960409033387</v>
       </c>
     </row>
     <row r="5702" spans="1:2">
@@ -46351,7 +46351,7 @@
         <v>5751</v>
       </c>
       <c r="B5751">
-        <v>45.88701173632282</v>
+        <v>45.88701173632281</v>
       </c>
     </row>
     <row r="5752" spans="1:2">
@@ -46503,7 +46503,7 @@
         <v>5770</v>
       </c>
       <c r="B5770">
-        <v>71.92051210061013</v>
+        <v>71.92051210061011</v>
       </c>
     </row>
     <row r="5771" spans="1:2">
@@ -46511,7 +46511,7 @@
         <v>5771</v>
       </c>
       <c r="B5771">
-        <v>70.60843306052328</v>
+        <v>70.60843306052327</v>
       </c>
     </row>
     <row r="5772" spans="1:2">
@@ -46727,7 +46727,7 @@
         <v>5798</v>
       </c>
       <c r="B5798">
-        <v>46.60562192312044</v>
+        <v>46.60562192312043</v>
       </c>
     </row>
     <row r="5799" spans="1:2">
@@ -46735,7 +46735,7 @@
         <v>5799</v>
       </c>
       <c r="B5799">
-        <v>45.59950904739604</v>
+        <v>45.59950904739603</v>
       </c>
     </row>
     <row r="5800" spans="1:2">
@@ -48071,7 +48071,7 @@
         <v>5966</v>
       </c>
       <c r="B5966">
-        <v>29.11188924728221</v>
+        <v>29.1118892472822</v>
       </c>
     </row>
     <row r="5967" spans="1:2">
@@ -48279,7 +48279,7 @@
         <v>5992</v>
       </c>
       <c r="B5992">
-        <v>35.4774215141105</v>
+        <v>35.47742151411049</v>
       </c>
     </row>
     <row r="5993" spans="1:2">
@@ -48799,7 +48799,7 @@
         <v>6057</v>
       </c>
       <c r="B6057">
-        <v>34.550144747786</v>
+        <v>34.55014474778599</v>
       </c>
     </row>
     <row r="6058" spans="1:2">
@@ -49215,7 +49215,7 @@
         <v>6109</v>
       </c>
       <c r="B6109">
-        <v>43.86159778813426</v>
+        <v>43.86159778813425</v>
       </c>
     </row>
     <row r="6110" spans="1:2">
@@ -49783,7 +49783,7 @@
         <v>6180</v>
       </c>
       <c r="B6180">
-        <v>35.16412857378152</v>
+        <v>35.16412857378151</v>
       </c>
     </row>
     <row r="6181" spans="1:2">
@@ -50151,7 +50151,7 @@
         <v>6226</v>
       </c>
       <c r="B6226">
-        <v>44.69743639039642</v>
+        <v>44.69743639039641</v>
       </c>
     </row>
     <row r="6227" spans="1:2">
@@ -51127,7 +51127,7 @@
         <v>6348</v>
       </c>
       <c r="B6348">
-        <v>7.111104989182748</v>
+        <v>7.111104989182747</v>
       </c>
     </row>
     <row r="6349" spans="1:2">
@@ -51911,7 +51911,7 @@
         <v>6446</v>
       </c>
       <c r="B6446">
-        <v>8.60060923607517</v>
+        <v>8.600609236075169</v>
       </c>
     </row>
     <row r="6447" spans="1:2">
@@ -52087,7 +52087,7 @@
         <v>6468</v>
       </c>
       <c r="B6468">
-        <v>4.385954629086363</v>
+        <v>4.385954629086362</v>
       </c>
     </row>
     <row r="6469" spans="1:2">
@@ -53447,7 +53447,7 @@
         <v>6638</v>
       </c>
       <c r="B6638">
-        <v>34.39716166560478</v>
+        <v>34.39716166560477</v>
       </c>
     </row>
     <row r="6639" spans="1:2">
@@ -56911,7 +56911,7 @@
         <v>7071</v>
       </c>
       <c r="B7071">
-        <v>20.85165271550833</v>
+        <v>20.85165271550832</v>
       </c>
     </row>
     <row r="7072" spans="1:2">
@@ -65535,7 +65535,7 @@
         <v>8149</v>
       </c>
       <c r="B8149">
-        <v>7.924933956441438</v>
+        <v>7.924933956441437</v>
       </c>
     </row>
     <row r="8150" spans="1:2">
